--- a/biology/Neurosciences/Rhinencéphale/Rhinencéphale.xlsx
+++ b/biology/Neurosciences/Rhinencéphale/Rhinencéphale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhinenc%C3%A9phale</t>
+          <t>Rhinencéphale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhinencéphale est l'appellation impropre du système limbique[réf. souhaitée]. Cette partie du cerveau intervient au niveau des émotions et du cycle veille-sommeil. 
 Les cinq structures du système limbique décrites par Mac Lean sont la formation hippocampique, le septum et l'amygdale, le grand lobe limbique, et enfin le cerveau olfactif. Or le rhinencéphale étant le lieu de terminaison des voies olfactives, on peut constater que le nerf crânien (I), à savoir le nerf olfactif, y termine son trajet entamé dans la fosse crânienne antérieure. On peut alors le nommer cortex olfactif.
